--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2302196.93779054</v>
+        <v>2295023.649080256</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702198</v>
+        <v>2346514.735702197</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>62.24894065618088</v>
+      </c>
+      <c r="F2" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>211.8367865735322</v>
-      </c>
       <c r="G2" t="n">
-        <v>15.16194852731947</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>86.80307722268741</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.08337903212159</v>
+        <v>205.2522812492953</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464228</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>207.5105897110079</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771037</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>174.8217522944745</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>83.52834321647913</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129672</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141301</v>
+        <v>42.09937462941913</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>114.807045819955</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>114.8070458199548</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>124.6804006624493</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>177.121612956081</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>81.80445351869577</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>150.5926229635548</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>113.6635323293997</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.18120630905344</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.796218259087</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,10 +2061,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>32.16677926756427</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.3796889500451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2377,7 +2377,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>100.0636310305663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>29.08796962576824</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.02905630219329</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>119.4550250536879</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>107.5009259672063</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.4294206174715</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>25.83794709730705</v>
+        <v>186.8209934727561</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>11.82150965373833</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>184.0823362885908</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338501</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>115.9114413896593</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819309</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>100.3251206108398</v>
       </c>
       <c r="W46" t="n">
-        <v>68.60257936592384</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737.4494614202823</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="C2" t="n">
-        <v>458.5034879835596</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="D2" t="n">
-        <v>458.5034879835596</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="E2" t="n">
-        <v>458.5034879835596</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F2" t="n">
-        <v>244.5269358890827</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
@@ -4333,13 +4333,13 @@
         <v>22.09252109618842</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438682</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412868</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
         <v>817.0829279823541</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>962.1762753293416</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="T2" t="n">
-        <v>737.4494614202823</v>
+        <v>896.7353068029593</v>
       </c>
       <c r="U2" t="n">
-        <v>737.4494614202823</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="V2" t="n">
-        <v>737.4494614202823</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="W2" t="n">
-        <v>737.4494614202823</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="X2" t="n">
-        <v>737.4494614202823</v>
+        <v>642.8621858041599</v>
       </c>
       <c r="Y2" t="n">
-        <v>737.4494614202823</v>
+        <v>642.8621858041599</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507.5959606247288</v>
+        <v>430.759984332943</v>
       </c>
       <c r="C3" t="n">
-        <v>507.5959606247288</v>
+        <v>256.306955051816</v>
       </c>
       <c r="D3" t="n">
-        <v>507.5959606247288</v>
+        <v>256.306955051816</v>
       </c>
       <c r="E3" t="n">
-        <v>507.5959606247288</v>
+        <v>256.306955051816</v>
       </c>
       <c r="F3" t="n">
-        <v>361.0614026516138</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H3" t="n">
         <v>109.772397078701</v>
@@ -4412,19 +4412,19 @@
         <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>679.0427979944839</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>952.4377465598157</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O3" t="n">
-        <v>1104.626054809422</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
         <v>1104.626054809422</v>
@@ -4439,22 +4439,22 @@
         <v>1008.180757940351</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940351</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="V3" t="n">
-        <v>773.0286497086088</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="W3" t="n">
-        <v>518.7912929804072</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="X3" t="n">
-        <v>518.7912929804072</v>
+        <v>806.3008579684607</v>
       </c>
       <c r="Y3" t="n">
-        <v>507.5959606247288</v>
+        <v>598.9753213530109</v>
       </c>
     </row>
     <row r="4">
@@ -4518,22 +4518,22 @@
         <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.68860422470554</v>
+        <v>990.9650405726167</v>
       </c>
       <c r="C5" t="n">
-        <v>51.68860422470554</v>
+        <v>990.9650405726167</v>
       </c>
       <c r="D5" t="n">
-        <v>51.68860422470554</v>
+        <v>990.9650405726167</v>
       </c>
       <c r="E5" t="n">
-        <v>51.68860422470554</v>
+        <v>781.3583842988713</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550207</v>
+        <v>405.5607773832926</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="J5" t="n">
         <v>57.64391735380434</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456885</v>
+        <v>220.1747338456886</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039987</v>
+        <v>474.0852112039988</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494175</v>
+        <v>773.2160860494176</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635723</v>
+        <v>1062.555213635724</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.58230929313</v>
+        <v>1290.582309293131</v>
       </c>
       <c r="P5" t="n">
         <v>1447.523776935883</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385691</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="S5" t="n">
-        <v>1287.905382334246</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="T5" t="n">
-        <v>1287.905382334246</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="U5" t="n">
-        <v>1287.905382334246</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="V5" t="n">
-        <v>956.8424949906756</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="W5" t="n">
-        <v>604.0738397205614</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="X5" t="n">
-        <v>427.4862111402841</v>
+        <v>1366.762647488195</v>
       </c>
       <c r="Y5" t="n">
-        <v>427.4862111402841</v>
+        <v>1366.762647488195</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.3472361169274</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="C6" t="n">
-        <v>650.3472361169274</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="D6" t="n">
-        <v>501.4128264556762</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="E6" t="n">
-        <v>342.1753714502207</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="F6" t="n">
-        <v>195.6408134771056</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
         <v>111.2687496220762</v>
@@ -4643,55 +4643,55 @@
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="K6" t="n">
         <v>195.5446164760269</v>
       </c>
       <c r="L6" t="n">
-        <v>479.8626256221634</v>
+        <v>479.8626256221635</v>
       </c>
       <c r="M6" t="n">
-        <v>848.1818601601219</v>
+        <v>848.1818601601221</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.493824334367</v>
+        <v>1179.843642013372</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706687</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706687</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385691</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707614</v>
+        <v>1488.158523385692</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107482</v>
+        <v>1445.633902547895</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107482</v>
+        <v>1244.476827898943</v>
       </c>
       <c r="U6" t="n">
-        <v>1234.174372107482</v>
+        <v>1016.270013552507</v>
       </c>
       <c r="V6" t="n">
-        <v>1234.174372107482</v>
+        <v>781.1179053207645</v>
       </c>
       <c r="W6" t="n">
-        <v>1234.174372107482</v>
+        <v>526.8805485925629</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.322871901949</v>
+        <v>319.0290483870301</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.5625731369955</v>
+        <v>111.2687496220762</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="C7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="D7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="E7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="F7" t="n">
         <v>199.2368932424191</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771382</v>
+        <v>29.76317046771383</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888175</v>
+        <v>32.09990175888178</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611301</v>
+        <v>90.61654790611308</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236693</v>
+        <v>162.7032697236694</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400027</v>
+        <v>238.5105468400029</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057954</v>
+        <v>292.5145415057955</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918684</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="R7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="S7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="T7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="U7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="V7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="W7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="X7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.2368932424191</v>
+        <v>315.2036061918686</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1560.797780174034</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="C8" t="n">
-        <v>1191.835263233623</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>744.3346612638211</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>333.3487564742135</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2287.032193705228</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1934.263538435114</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.797780174034</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1560.797780174034</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,19 +4886,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>182.2302673832259</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.1954542207687</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>560.1954542207687</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1011.941991339986</v>
       </c>
       <c r="V13" t="n">
-        <v>675.0071030383442</v>
+        <v>1011.941991339986</v>
       </c>
       <c r="W13" t="n">
-        <v>675.0071030383442</v>
+        <v>1011.941991339986</v>
       </c>
       <c r="X13" t="n">
-        <v>560.1954542207687</v>
+        <v>783.952440441969</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.1954542207687</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>732.169830515405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3515998808206</v>
+        <v>472.197537898503</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>824.3515998808206</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X16" t="n">
-        <v>824.3515998808206</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.3515998808206</v>
+        <v>653.8460027287427</v>
       </c>
     </row>
     <row r="17">
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>753.5905102466558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247858</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>674.7185717878251</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>674.7185717878251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5983,58 +5983,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977053</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2279.445761859783</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.468242641992</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227918</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227918</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>773.8527383444419</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>545.8631874464246</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6229,13 +6229,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.3978353108171</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C28" t="n">
-        <v>677.4616523829102</v>
+        <v>591.7807875514874</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>441.6641481391516</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>441.6641481391516</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>294.7742006412412</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>126.5988789610618</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>126.5988789610618</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1472.624294495081</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1472.624294495081</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1248.838879284587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1248.838879284587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1248.838879284587</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>1248.838879284587</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>1248.838879284587</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>1028.046300141057</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6463,7 +6463,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>367.9953723409932</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>217.8787329286575</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W31" t="n">
-        <v>985.7136853104475</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X31" t="n">
-        <v>757.7241344124302</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y31" t="n">
-        <v>536.9315552689001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6703,31 +6703,31 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6782,22 +6782,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>672.7698012891906</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>503.8336183612837</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>353.7169789489479</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>205.8038853665548</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>205.8038853665548</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6888,22 +6888,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X34" t="n">
-        <v>465.7659634441654</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6940,16 +6940,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7019,10 +7019,10 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
         <v>1406.737288300438</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3756.161980826922</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C37" t="n">
-        <v>3756.161980826922</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D37" t="n">
-        <v>3606.045341414586</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414586</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X37" t="n">
-        <v>3782.260917288848</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y37" t="n">
-        <v>3756.161980826922</v>
+        <v>766.3950693506686</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,10 +7174,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2484.468242641992</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>256.0479578003561</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C40" t="n">
-        <v>256.0479578003561</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D40" t="n">
-        <v>256.0479578003561</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="Y40" t="n">
-        <v>437.6964226305959</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7432,13 +7432,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020477</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3726.65566639869</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C43" t="n">
-        <v>3726.65566639869</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>3726.65566639869</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>3726.65566639869</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>3726.65566639869</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4525.994054365623</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>4236.865415579181</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>4236.865415579181</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>3947.44824554222</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>3947.44824554222</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>3726.65566639869</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,61 +7639,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>993.2877828087275</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C46" t="n">
-        <v>824.3515998808206</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D46" t="n">
-        <v>674.2349604684848</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>573.668597370829</v>
       </c>
       <c r="W46" t="n">
-        <v>1174.936247638961</v>
+        <v>573.668597370829</v>
       </c>
       <c r="X46" t="n">
-        <v>1174.936247638961</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y46" t="n">
-        <v>1174.936247638961</v>
+        <v>573.668597370829</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,10 +8072,10 @@
         <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
-        <v>278.399182576045</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>119.5899201578276</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3661252938572</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835737</v>
+        <v>450.1033532835739</v>
       </c>
       <c r="N6" t="n">
-        <v>298.2139977513765</v>
+        <v>400.587550962492</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>85.68821697936131</v>
+        <v>85.68821697936127</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.703734524734</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>199.6230805871087</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,22 +9482,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978268</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,13 +9719,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.49733361305314</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9956,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>213.2603911806632</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>104.8749102765749</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>43.6598726146251</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10667,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.49733361305314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.0237016735878</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503173</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>135.6447294350226</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>112.0461230596374</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>91.0656147895744</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>178.726780077504</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>254.3562190690267</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.20496440204965</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>186.4593673060247</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.33127583850376</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>83.93529610159952</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>26.97893759288128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>58.99264249617133</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1552327346232687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.7467062547877</v>
+        <v>31.76365987933866</v>
       </c>
     </row>
     <row r="38">
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>134.6124529928308</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>37.46522476979843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.5821270737183</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>151.8125227129882</v>
       </c>
       <c r="W46" t="n">
-        <v>217.9204189706672</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894618</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837254.2622894616</v>
+        <v>837254.2622894617</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894614</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837254.2622894614</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837254.2622894617</v>
+        <v>837254.2622894616</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="G2" t="n">
+        <v>566992.1366196781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196781</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="L2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="M2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="N2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>566992.1366196783</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196779</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.1366196774</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703846</v>
+        <v>106137.1517703847</v>
       </c>
       <c r="D3" t="n">
         <v>316711.9424252101</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113907</v>
+        <v>72254.69487113901</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313432</v>
+        <v>24677.24609313437</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817132</v>
+        <v>76496.15793817127</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.369871660292985e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>278381.9556177375</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
@@ -26450,16 +26450,16 @@
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="N4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="O4" t="n">
-        <v>36432.48351773403</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773404</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26472,25 +26472,25 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485719</v>
+        <v>58810.42201485721</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109246.2495119824</v>
+        <v>109246.2495119825</v>
       </c>
       <c r="C6" t="n">
         <v>151925.7537486261</v>
       </c>
       <c r="D6" t="n">
-        <v>12335.57580585725</v>
+        <v>12335.57580585717</v>
       </c>
       <c r="E6" t="n">
-        <v>-86587.70932366861</v>
+        <v>-87562.30058339023</v>
       </c>
       <c r="F6" t="n">
-        <v>438572.3271532274</v>
+        <v>437597.7358935057</v>
       </c>
       <c r="G6" t="n">
-        <v>438572.3271532274</v>
+        <v>437597.7358935059</v>
       </c>
       <c r="H6" t="n">
-        <v>438572.3271532273</v>
+        <v>437597.7358935055</v>
       </c>
       <c r="I6" t="n">
-        <v>438572.3271532274</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="J6" t="n">
-        <v>366317.6322820885</v>
+        <v>365343.0410223668</v>
       </c>
       <c r="K6" t="n">
-        <v>413895.0810600933</v>
+        <v>412920.4898003715</v>
       </c>
       <c r="L6" t="n">
-        <v>362076.169215056</v>
+        <v>361101.5779553342</v>
       </c>
       <c r="M6" t="n">
-        <v>303771.3119193903</v>
+        <v>302796.7206596687</v>
       </c>
       <c r="N6" t="n">
-        <v>438572.3271532276</v>
+        <v>437597.7358935056</v>
       </c>
       <c r="O6" t="n">
-        <v>438572.3271532273</v>
+        <v>437597.7358935061</v>
       </c>
       <c r="P6" t="n">
-        <v>438572.3271532268</v>
+        <v>437597.7358935056</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,16 +26740,16 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593896</v>
+        <v>117.5602045593897</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464228</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026434</v>
+        <v>82.53894384026444</v>
       </c>
       <c r="D3" t="n">
         <v>260.183459657697</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406733</v>
+        <v>95.88311714406753</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081328</v>
+        <v>302.2476419081327</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023551</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406733</v>
+        <v>95.88311714406753</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081331</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990173</v>
@@ -27260,10 +27260,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406733</v>
+        <v>95.88311714406753</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081328</v>
+        <v>302.2476419081327</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>89.11637806865212</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>319.6814294160809</v>
       </c>
       <c r="F2" t="n">
-        <v>195.0392591681793</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>139.0054348249641</v>
       </c>
       <c r="H2" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>194.5993167451828</v>
+        <v>0.430414528009095</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>4.70078623405945</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27590,7 +27590,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T4" t="n">
-        <v>52.54455953715794</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U4" t="n">
         <v>286.3155846423218</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705781</v>
+        <v>10.69421081705764</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>174.4197803612539</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.8364148952885</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>42.79050283128743</v>
       </c>
       <c r="H5" t="n">
         <v>334.6347480657416</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385215</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
@@ -27675,13 +27675,13 @@
         <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>194.9093483839945</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,22 +27694,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>53.56230860107547</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
         <v>109.7932973455552</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.4580015512967</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>124.886933584711</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1455039024624</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>30.61400220297629</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322655</v>
+        <v>68.41045236322654</v>
       </c>
       <c r="R7" t="n">
-        <v>52.95433290556318</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
         <v>220.3221240674583</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>289.1037693583457</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>150.6306455140539</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>204.7185448178952</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -30462,25 +30462,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>9.539036227579345e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.462339575366232e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30854,7 +30854,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.380012624027758e-12</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246816</v>
+        <v>0.472603837424682</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025522</v>
+        <v>4.840054050025525</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231505</v>
+        <v>18.22005944231507</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662311</v>
+        <v>40.11165994662314</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480989</v>
+        <v>60.11698038480994</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439551</v>
+        <v>74.58043007439557</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819668</v>
+        <v>82.98509856819675</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127956</v>
+        <v>84.32788422127963</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288789</v>
+        <v>79.62842981288794</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646605</v>
+        <v>67.96102257646611</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869462</v>
+        <v>51.03589764869466</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262818</v>
+        <v>29.6872008026282</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531494</v>
+        <v>10.76945994531495</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326545</v>
+        <v>2.068823298326546</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397452</v>
+        <v>0.03780830699397455</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560456</v>
+        <v>0.2528653456560458</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941283</v>
+        <v>2.442146890941285</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859631</v>
+        <v>8.706109488596317</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182842</v>
+        <v>23.89022987182844</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078348</v>
+        <v>40.83220803078351</v>
       </c>
       <c r="L6" t="n">
-        <v>54.9039427048357</v>
+        <v>54.90394270483575</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486735</v>
+        <v>64.07031148486739</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270987</v>
+        <v>65.76606198270993</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106802</v>
+        <v>60.16309827106807</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496893</v>
+        <v>48.28619043496897</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128751</v>
+        <v>32.27803956128754</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134642</v>
+        <v>15.69983260134643</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707687</v>
+        <v>4.696862889707691</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359236</v>
+        <v>1.019224792359237</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368722</v>
+        <v>0.01663587800368723</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005386</v>
+        <v>0.2119938115005388</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886609</v>
+        <v>1.88481770588661</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761655</v>
+        <v>6.375232076761661</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308808</v>
+        <v>14.98796247308809</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342621</v>
+        <v>24.62982646342623</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072554</v>
+        <v>31.51769812072557</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094352</v>
+        <v>33.23099356094355</v>
       </c>
       <c r="N7" t="n">
-        <v>32.440834808987</v>
+        <v>32.44083480898703</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736706</v>
+        <v>29.96436164736708</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275605</v>
+        <v>25.63968789275607</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846783</v>
+        <v>17.75159088846785</v>
       </c>
       <c r="R7" t="n">
-        <v>9.53201265165149</v>
+        <v>9.532012651651499</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513932</v>
+        <v>3.694473969513935</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477559</v>
+        <v>0.9057917400477566</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0115632988091203</v>
+        <v>0.01156329880912031</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34368,40 +34368,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,10 +34441,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215733</v>
@@ -34453,7 +34453,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724845</v>
@@ -34462,10 +34462,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34541,7 +34541,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,10 +34553,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>248.6418854471727</v>
@@ -34792,10 +34792,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="O3" t="n">
-        <v>153.725563888491</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201059</v>
+        <v>28.16237059201062</v>
       </c>
       <c r="K5" t="n">
         <v>164.1725419109941</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548587</v>
+        <v>256.4752296548588</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337564</v>
+        <v>302.1523988337565</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366728</v>
+        <v>292.2617450366729</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539465</v>
+        <v>230.3303996539466</v>
       </c>
       <c r="P5" t="n">
         <v>158.5267349926792</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414982</v>
+        <v>41.04519843414986</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>287.1899082284207</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464228</v>
+        <v>372.0396308464229</v>
       </c>
       <c r="N6" t="n">
-        <v>232.6383476507531</v>
+        <v>335.0119008618686</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033531</v>
+        <v>311.4291731033532</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36033463754336</v>
+        <v>2.360334637543382</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104168</v>
+        <v>59.10772338104171</v>
       </c>
       <c r="M7" t="n">
-        <v>72.8148705227841</v>
+        <v>72.81487052278413</v>
       </c>
       <c r="N7" t="n">
-        <v>76.5730071882156</v>
+        <v>76.57300718821563</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140673</v>
+        <v>54.54948956140676</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764954</v>
+        <v>22.91824715764956</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>448.880785543133</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35977,16 +35977,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36439,13 +36439,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.5103663981272</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>546.454964578676</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
@@ -37165,10 +37165,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>250.7532875461497</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>510.1640057735818</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.5103663981272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>429.281406629612</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063415</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299105</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056036</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
